--- a/HW2/part_3/results/eo_pdc_20_OUT_size4.xlsx
+++ b/HW2/part_3/results/eo_pdc_20_OUT_size4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="191">
   <si>
     <t>Motif ID</t>
   </si>
@@ -37,541 +37,553 @@
     <t>Uniqueness</t>
   </si>
   <si>
-    <t>2226.6+-114.4</t>
-  </si>
-  <si>
-    <t>1514.4+-87.3</t>
-  </si>
-  <si>
-    <t>525.6+-54.8</t>
-  </si>
-  <si>
-    <t>3798.5+-172.8</t>
-  </si>
-  <si>
-    <t>10374.4+-255.2</t>
-  </si>
-  <si>
-    <t>1773.1+-61.0</t>
-  </si>
-  <si>
-    <t>237.5+-45.6</t>
-  </si>
-  <si>
-    <t>852.5+-51.9</t>
-  </si>
-  <si>
-    <t>172.4+-49.1</t>
-  </si>
-  <si>
-    <t>710.8+-62.1</t>
-  </si>
-  <si>
-    <t>188.4+-23.7</t>
-  </si>
-  <si>
-    <t>12.9+-9.6</t>
-  </si>
-  <si>
-    <t>2010.8+-107.5</t>
-  </si>
-  <si>
-    <t>675.9+-52.9</t>
-  </si>
-  <si>
-    <t>59.3+-12.4</t>
-  </si>
-  <si>
-    <t>1742.1+-110.2</t>
-  </si>
-  <si>
-    <t>142.9+-41.0</t>
-  </si>
-  <si>
-    <t>1068.6+-119.3</t>
-  </si>
-  <si>
-    <t>179.4+-43.7</t>
-  </si>
-  <si>
-    <t>417.3+-36.1</t>
-  </si>
-  <si>
-    <t>49.8+-13.0</t>
-  </si>
-  <si>
-    <t>199.9+-32.2</t>
-  </si>
-  <si>
-    <t>26.1+-9.4</t>
-  </si>
-  <si>
-    <t>324.8+-32.4</t>
-  </si>
-  <si>
-    <t>4821.0+-204.6</t>
-  </si>
-  <si>
-    <t>401.4+-35.6</t>
-  </si>
-  <si>
-    <t>886.5+-55.9</t>
-  </si>
-  <si>
-    <t>133.9+-19.3</t>
-  </si>
-  <si>
-    <t>1302.0+-71.1</t>
-  </si>
-  <si>
-    <t>133.5+-26.4</t>
-  </si>
-  <si>
-    <t>1164.8+-61.6</t>
-  </si>
-  <si>
-    <t>137.3+-33.5</t>
-  </si>
-  <si>
-    <t>180.1+-21.5</t>
-  </si>
-  <si>
-    <t>21.8+-6.8</t>
-  </si>
-  <si>
-    <t>83.0+-20.1</t>
-  </si>
-  <si>
-    <t>501.3+-39.2</t>
-  </si>
-  <si>
-    <t>31.6+-10.9</t>
-  </si>
-  <si>
-    <t>276.2+-34.9</t>
-  </si>
-  <si>
-    <t>36.6+-10.6</t>
-  </si>
-  <si>
-    <t>311.3+-41.0</t>
-  </si>
-  <si>
-    <t>65.0+-19.3</t>
-  </si>
-  <si>
-    <t>190.2+-22.8</t>
-  </si>
-  <si>
-    <t>19.9+-7.3</t>
-  </si>
-  <si>
-    <t>85.2+-15.6</t>
-  </si>
-  <si>
-    <t>9.5+-4.5</t>
-  </si>
-  <si>
-    <t>24.8+-8.8</t>
-  </si>
-  <si>
-    <t>20.1+-7.7</t>
-  </si>
-  <si>
-    <t>4.4+-6.0</t>
-  </si>
-  <si>
-    <t>250.7+-33.1</t>
-  </si>
-  <si>
-    <t>91.0+-16.0</t>
-  </si>
-  <si>
-    <t>60.9+-13.6</t>
-  </si>
-  <si>
-    <t>17.7+-7.2</t>
-  </si>
-  <si>
-    <t>13.3+-6.0</t>
-  </si>
-  <si>
-    <t>10.5+-4.1</t>
+    <t>2229.0+-113.3</t>
+  </si>
+  <si>
+    <t>1515.7+-90.1</t>
+  </si>
+  <si>
+    <t>524.8+-53.3</t>
+  </si>
+  <si>
+    <t>3809.6+-172.5</t>
+  </si>
+  <si>
+    <t>10381.4+-257.2</t>
+  </si>
+  <si>
+    <t>1772.5+-63.7</t>
+  </si>
+  <si>
+    <t>235.6+-45.4</t>
+  </si>
+  <si>
+    <t>852.7+-51.2</t>
+  </si>
+  <si>
+    <t>170.3+-47.3</t>
+  </si>
+  <si>
+    <t>715.5+-63.1</t>
+  </si>
+  <si>
+    <t>189.2+-24.1</t>
+  </si>
+  <si>
+    <t>12.5+-9.2</t>
+  </si>
+  <si>
+    <t>2013.3+-108.8</t>
+  </si>
+  <si>
+    <t>673.7+-55.2</t>
+  </si>
+  <si>
+    <t>59.4+-12.4</t>
+  </si>
+  <si>
+    <t>1746.8+-113.4</t>
+  </si>
+  <si>
+    <t>141.4+-40.9</t>
+  </si>
+  <si>
+    <t>1070.0+-113.5</t>
+  </si>
+  <si>
+    <t>182.1+-40.6</t>
+  </si>
+  <si>
+    <t>418.7+-36.9</t>
+  </si>
+  <si>
+    <t>49.9+-13.2</t>
+  </si>
+  <si>
+    <t>199.7+-32.3</t>
+  </si>
+  <si>
+    <t>26.3+-9.7</t>
+  </si>
+  <si>
+    <t>324.3+-32.1</t>
+  </si>
+  <si>
+    <t>4811.6+-196.0</t>
+  </si>
+  <si>
+    <t>401.2+-38.1</t>
+  </si>
+  <si>
+    <t>887.5+-55.5</t>
+  </si>
+  <si>
+    <t>133.1+-19.0</t>
+  </si>
+  <si>
+    <t>1305.3+-70.0</t>
+  </si>
+  <si>
+    <t>133.5+-24.8</t>
+  </si>
+  <si>
+    <t>1163.4+-62.2</t>
+  </si>
+  <si>
+    <t>138.3+-34.2</t>
+  </si>
+  <si>
+    <t>180.3+-22.3</t>
+  </si>
+  <si>
+    <t>22.0+-7.1</t>
+  </si>
+  <si>
+    <t>85.1+-19.9</t>
+  </si>
+  <si>
+    <t>499.5+-39.2</t>
+  </si>
+  <si>
+    <t>30.4+-11.1</t>
+  </si>
+  <si>
+    <t>276.5+-34.7</t>
+  </si>
+  <si>
+    <t>37.5+-10.7</t>
+  </si>
+  <si>
+    <t>310.3+-39.4</t>
+  </si>
+  <si>
+    <t>65.4+-19.3</t>
+  </si>
+  <si>
+    <t>191.1+-22.3</t>
+  </si>
+  <si>
+    <t>20.3+-7.6</t>
+  </si>
+  <si>
+    <t>84.5+-15.5</t>
+  </si>
+  <si>
+    <t>9.4+-4.4</t>
+  </si>
+  <si>
+    <t>24.8+-8.7</t>
+  </si>
+  <si>
+    <t>20.8+-8.1</t>
+  </si>
+  <si>
+    <t>4.2+-5.7</t>
+  </si>
+  <si>
+    <t>250.7+-32.2</t>
+  </si>
+  <si>
+    <t>91.0+-15.4</t>
+  </si>
+  <si>
+    <t>59.5+-13.9</t>
+  </si>
+  <si>
+    <t>17.6+-7.5</t>
+  </si>
+  <si>
+    <t>13.4+-5.7</t>
+  </si>
+  <si>
+    <t>10.7+-4.2</t>
   </si>
   <si>
     <t>3.3+-2.2</t>
   </si>
   <si>
-    <t>13.0+-5.5</t>
-  </si>
-  <si>
-    <t>8.4+-4.2</t>
-  </si>
-  <si>
-    <t>0.7+-1.5</t>
-  </si>
-  <si>
-    <t>2831.7+-113.3</t>
-  </si>
-  <si>
-    <t>1838.7+-67.7</t>
-  </si>
-  <si>
-    <t>153.1+-20.2</t>
-  </si>
-  <si>
-    <t>111.4+-28.0</t>
-  </si>
-  <si>
-    <t>146.8+-18.9</t>
-  </si>
-  <si>
-    <t>29.6+-10.3</t>
-  </si>
-  <si>
-    <t>212.6+-25.6</t>
-  </si>
-  <si>
-    <t>53.3+-12.3</t>
-  </si>
-  <si>
-    <t>3.8+-3.4</t>
-  </si>
-  <si>
-    <t>47.8+-12.5</t>
-  </si>
-  <si>
-    <t>2.8+-2.2</t>
-  </si>
-  <si>
-    <t>2.9+-2.1</t>
-  </si>
-  <si>
-    <t>5.4+-3.0</t>
-  </si>
-  <si>
-    <t>7.5+-3.8</t>
+    <t>13.2+-5.3</t>
+  </si>
+  <si>
+    <t>8.7+-4.3</t>
+  </si>
+  <si>
+    <t>0.7+-1.3</t>
+  </si>
+  <si>
+    <t>2841.5+-112.3</t>
+  </si>
+  <si>
+    <t>1835.6+-65.6</t>
+  </si>
+  <si>
+    <t>152.1+-20.3</t>
+  </si>
+  <si>
+    <t>109.7+-26.5</t>
+  </si>
+  <si>
+    <t>145.3+-18.6</t>
+  </si>
+  <si>
+    <t>28.7+-10.0</t>
+  </si>
+  <si>
+    <t>211.2+-26.4</t>
+  </si>
+  <si>
+    <t>54.0+-12.4</t>
+  </si>
+  <si>
+    <t>3.6+-3.2</t>
+  </si>
+  <si>
+    <t>47.4+-12.4</t>
+  </si>
+  <si>
+    <t>2.7+-2.1</t>
+  </si>
+  <si>
+    <t>5.6+-3.0</t>
+  </si>
+  <si>
+    <t>7.4+-3.6</t>
+  </si>
+  <si>
+    <t>1.5+-1.5</t>
+  </si>
+  <si>
+    <t>0.1+-0.2</t>
+  </si>
+  <si>
+    <t>1195.6+-89.1</t>
+  </si>
+  <si>
+    <t>156.1+-24.6</t>
+  </si>
+  <si>
+    <t>5.4+-2.5</t>
+  </si>
+  <si>
+    <t>188.2+-51.7</t>
+  </si>
+  <si>
+    <t>914.5+-86.8</t>
+  </si>
+  <si>
+    <t>95.5+-23.3</t>
+  </si>
+  <si>
+    <t>625.5+-48.0</t>
+  </si>
+  <si>
+    <t>30.8+-10.4</t>
+  </si>
+  <si>
+    <t>250.2+-36.4</t>
+  </si>
+  <si>
+    <t>17.3+-5.7</t>
+  </si>
+  <si>
+    <t>209.9+-42.0</t>
+  </si>
+  <si>
+    <t>697.4+-66.4</t>
+  </si>
+  <si>
+    <t>76.7+-19.7</t>
+  </si>
+  <si>
+    <t>239.9+-28.4</t>
+  </si>
+  <si>
+    <t>25.1+-7.9</t>
+  </si>
+  <si>
+    <t>88.6+-16.7</t>
+  </si>
+  <si>
+    <t>7.5+-2.5</t>
+  </si>
+  <si>
+    <t>7.3+-4.8</t>
+  </si>
+  <si>
+    <t>182.3+-23.7</t>
+  </si>
+  <si>
+    <t>7.4+-3.8</t>
+  </si>
+  <si>
+    <t>35.4+-8.8</t>
+  </si>
+  <si>
+    <t>2.3+-1.7</t>
+  </si>
+  <si>
+    <t>18.9+-8.9</t>
+  </si>
+  <si>
+    <t>111.8+-16.5</t>
+  </si>
+  <si>
+    <t>13.2+-5.7</t>
+  </si>
+  <si>
+    <t>20.1+-7.0</t>
+  </si>
+  <si>
+    <t>1.9+-1.5</t>
+  </si>
+  <si>
+    <t>76.3+-17.9</t>
+  </si>
+  <si>
+    <t>108.2+-9.7</t>
+  </si>
+  <si>
+    <t>23.2+-5.8</t>
+  </si>
+  <si>
+    <t>113.7+-24.8</t>
+  </si>
+  <si>
+    <t>38.9+-13.7</t>
+  </si>
+  <si>
+    <t>16.6+-5.3</t>
+  </si>
+  <si>
+    <t>17.3+-5.2</t>
+  </si>
+  <si>
+    <t>6.9+-2.9</t>
+  </si>
+  <si>
+    <t>20.2+-6.4</t>
+  </si>
+  <si>
+    <t>14.6+-6.0</t>
+  </si>
+  <si>
+    <t>49.4+-10.3</t>
+  </si>
+  <si>
+    <t>18.9+-6.3</t>
+  </si>
+  <si>
+    <t>2.3+-2.0</t>
+  </si>
+  <si>
+    <t>7.3+-3.8</t>
+  </si>
+  <si>
+    <t>2.7+-2.0</t>
+  </si>
+  <si>
+    <t>12.9+-4.5</t>
+  </si>
+  <si>
+    <t>8.2+-3.6</t>
+  </si>
+  <si>
+    <t>0.7+-0.9</t>
+  </si>
+  <si>
+    <t>73.4+-19.7</t>
+  </si>
+  <si>
+    <t>9.7+-11.8</t>
+  </si>
+  <si>
+    <t>14.0+-5.0</t>
+  </si>
+  <si>
+    <t>9.0+-3.2</t>
+  </si>
+  <si>
+    <t>1.0+-1.4</t>
+  </si>
+  <si>
+    <t>43.2+-13.8</t>
+  </si>
+  <si>
+    <t>5.0+-3.0</t>
+  </si>
+  <si>
+    <t>20.7+-7.0</t>
+  </si>
+  <si>
+    <t>18.9+-5.7</t>
+  </si>
+  <si>
+    <t>2.7+-1.9</t>
+  </si>
+  <si>
+    <t>36.0+-10.5</t>
+  </si>
+  <si>
+    <t>15.8+-5.4</t>
+  </si>
+  <si>
+    <t>3.8+-2.4</t>
+  </si>
+  <si>
+    <t>55.7+-12.5</t>
+  </si>
+  <si>
+    <t>13.3+-5.4</t>
+  </si>
+  <si>
+    <t>6.0+-3.0</t>
+  </si>
+  <si>
+    <t>1.1+-1.1</t>
+  </si>
+  <si>
+    <t>4.9+-2.9</t>
+  </si>
+  <si>
+    <t>1.9+-1.6</t>
+  </si>
+  <si>
+    <t>11.0+-4.2</t>
+  </si>
+  <si>
+    <t>2.4+-1.8</t>
+  </si>
+  <si>
+    <t>7.1+-3.2</t>
+  </si>
+  <si>
+    <t>1.0+-1.1</t>
+  </si>
+  <si>
+    <t>4.7+-2.8</t>
+  </si>
+  <si>
+    <t>11.5+-4.7</t>
+  </si>
+  <si>
+    <t>1.6+-2.5</t>
+  </si>
+  <si>
+    <t>10.7+-4.5</t>
+  </si>
+  <si>
+    <t>1.8+-1.6</t>
+  </si>
+  <si>
+    <t>4.0+-2.1</t>
+  </si>
+  <si>
+    <t>0.5+-0.8</t>
+  </si>
+  <si>
+    <t>2.5+-2.1</t>
+  </si>
+  <si>
+    <t>44.9+-11.6</t>
+  </si>
+  <si>
+    <t>6.3+-3.7</t>
+  </si>
+  <si>
+    <t>5.3+-3.1</t>
   </si>
   <si>
     <t>1.6+-1.5</t>
   </si>
   <si>
+    <t>12.4+-4.8</t>
+  </si>
+  <si>
+    <t>1.3+-1.3</t>
+  </si>
+  <si>
+    <t>2.1+-1.8</t>
+  </si>
+  <si>
+    <t>64.1+-16.3</t>
+  </si>
+  <si>
+    <t>27.2+-8.2</t>
+  </si>
+  <si>
+    <t>1.0+-1.0</t>
+  </si>
+  <si>
+    <t>0.8+-1.0</t>
+  </si>
+  <si>
+    <t>2.1+-1.7</t>
+  </si>
+  <si>
+    <t>13.8+-5.6</t>
+  </si>
+  <si>
+    <t>1.4+-1.3</t>
+  </si>
+  <si>
+    <t>16.7+-6.2</t>
+  </si>
+  <si>
+    <t>7.9+-3.9</t>
+  </si>
+  <si>
+    <t>0.4+-0.6</t>
+  </si>
+  <si>
+    <t>4.8+-2.7</t>
+  </si>
+  <si>
+    <t>0.9+-1.0</t>
+  </si>
+  <si>
+    <t>0.3+-0.6</t>
+  </si>
+  <si>
+    <t>1.7+-1.4</t>
+  </si>
+  <si>
+    <t>1.2+-1.2</t>
+  </si>
+  <si>
+    <t>0.2+-0.5</t>
+  </si>
+  <si>
+    <t>0.1+-0.4</t>
+  </si>
+  <si>
+    <t>1.1+-1.3</t>
+  </si>
+  <si>
+    <t>0.1+-0.3</t>
+  </si>
+  <si>
+    <t>3.2+-4.3</t>
+  </si>
+  <si>
+    <t>1.4+-1.2</t>
+  </si>
+  <si>
+    <t>0.5+-0.9</t>
+  </si>
+  <si>
+    <t>0.3+-0.5</t>
+  </si>
+  <si>
+    <t>0.0+-0.1</t>
+  </si>
+  <si>
     <t>0.0+-0.2</t>
   </si>
   <si>
-    <t>1191.2+-84.5</t>
-  </si>
-  <si>
-    <t>156.2+-23.9</t>
-  </si>
-  <si>
-    <t>5.4+-2.5</t>
-  </si>
-  <si>
-    <t>190.5+-50.4</t>
-  </si>
-  <si>
-    <t>914.2+-84.6</t>
-  </si>
-  <si>
-    <t>95.2+-22.5</t>
-  </si>
-  <si>
-    <t>628.3+-47.2</t>
-  </si>
-  <si>
-    <t>31.4+-10.0</t>
-  </si>
-  <si>
-    <t>249.7+-34.7</t>
-  </si>
-  <si>
-    <t>17.6+-6.0</t>
-  </si>
-  <si>
-    <t>207.0+-44.3</t>
-  </si>
-  <si>
-    <t>700.1+-68.2</t>
-  </si>
-  <si>
-    <t>76.0+-19.5</t>
-  </si>
-  <si>
-    <t>242.0+-27.4</t>
-  </si>
-  <si>
-    <t>24.7+-8.0</t>
-  </si>
-  <si>
-    <t>89.5+-16.6</t>
-  </si>
-  <si>
-    <t>7.4+-2.5</t>
-  </si>
-  <si>
-    <t>7.6+-4.9</t>
-  </si>
-  <si>
-    <t>183.0+-24.2</t>
-  </si>
-  <si>
-    <t>7.5+-3.9</t>
-  </si>
-  <si>
-    <t>35.4+-8.7</t>
-  </si>
-  <si>
-    <t>2.2+-1.8</t>
-  </si>
-  <si>
-    <t>18.4+-9.5</t>
-  </si>
-  <si>
-    <t>113.3+-17.0</t>
-  </si>
-  <si>
-    <t>12.8+-5.7</t>
-  </si>
-  <si>
-    <t>20.3+-7.1</t>
-  </si>
-  <si>
-    <t>1.8+-1.4</t>
-  </si>
-  <si>
-    <t>76.1+-16.6</t>
-  </si>
-  <si>
-    <t>108.8+-10.2</t>
-  </si>
-  <si>
-    <t>23.0+-5.9</t>
-  </si>
-  <si>
-    <t>112.9+-25.9</t>
-  </si>
-  <si>
-    <t>38.9+-12.9</t>
-  </si>
-  <si>
-    <t>16.6+-5.2</t>
-  </si>
-  <si>
-    <t>17.0+-5.0</t>
-  </si>
-  <si>
-    <t>6.8+-2.9</t>
-  </si>
-  <si>
-    <t>20.1+-6.6</t>
-  </si>
-  <si>
-    <t>14.8+-5.8</t>
-  </si>
-  <si>
-    <t>49.5+-10.3</t>
-  </si>
-  <si>
-    <t>18.7+-6.5</t>
-  </si>
-  <si>
-    <t>2.2+-2.0</t>
-  </si>
-  <si>
-    <t>7.4+-3.6</t>
-  </si>
-  <si>
-    <t>2.7+-2.0</t>
-  </si>
-  <si>
-    <t>12.9+-4.4</t>
-  </si>
-  <si>
-    <t>7.9+-3.6</t>
-  </si>
-  <si>
-    <t>0.7+-0.9</t>
-  </si>
-  <si>
-    <t>73.4+-19.0</t>
-  </si>
-  <si>
-    <t>10.2+-12.2</t>
-  </si>
-  <si>
-    <t>14.1+-5.2</t>
-  </si>
-  <si>
-    <t>9.0+-3.2</t>
-  </si>
-  <si>
-    <t>1.1+-1.5</t>
-  </si>
-  <si>
-    <t>43.8+-13.0</t>
-  </si>
-  <si>
-    <t>5.0+-3.0</t>
-  </si>
-  <si>
-    <t>20.4+-6.8</t>
-  </si>
-  <si>
-    <t>18.7+-5.5</t>
-  </si>
-  <si>
-    <t>2.6+-1.8</t>
-  </si>
-  <si>
-    <t>35.3+-10.2</t>
-  </si>
-  <si>
-    <t>15.8+-5.6</t>
-  </si>
-  <si>
-    <t>3.7+-2.5</t>
-  </si>
-  <si>
-    <t>55.7+-12.3</t>
-  </si>
-  <si>
-    <t>13.3+-5.4</t>
-  </si>
-  <si>
-    <t>5.8+-2.9</t>
-  </si>
-  <si>
-    <t>1.1+-1.1</t>
-  </si>
-  <si>
-    <t>5.1+-2.9</t>
-  </si>
-  <si>
-    <t>1.9+-1.6</t>
-  </si>
-  <si>
-    <t>11.0+-4.2</t>
-  </si>
-  <si>
-    <t>2.4+-1.8</t>
-  </si>
-  <si>
-    <t>7.2+-3.2</t>
-  </si>
-  <si>
-    <t>4.8+-2.8</t>
-  </si>
-  <si>
-    <t>11.7+-4.8</t>
-  </si>
-  <si>
-    <t>1.6+-2.4</t>
-  </si>
-  <si>
-    <t>10.8+-4.6</t>
-  </si>
-  <si>
-    <t>1.8+-1.5</t>
-  </si>
-  <si>
-    <t>4.0+-2.1</t>
-  </si>
-  <si>
-    <t>0.5+-0.8</t>
-  </si>
-  <si>
-    <t>2.7+-2.3</t>
-  </si>
-  <si>
-    <t>44.3+-12.1</t>
-  </si>
-  <si>
-    <t>6.2+-3.9</t>
-  </si>
-  <si>
-    <t>5.3+-3.0</t>
-  </si>
-  <si>
-    <t>1.6+-1.6</t>
-  </si>
-  <si>
-    <t>12.2+-4.8</t>
-  </si>
-  <si>
-    <t>1.4+-1.3</t>
-  </si>
-  <si>
-    <t>2.1+-1.9</t>
-  </si>
-  <si>
-    <t>65.2+-17.0</t>
-  </si>
-  <si>
-    <t>27.1+-8.2</t>
-  </si>
-  <si>
-    <t>0.8+-1.0</t>
-  </si>
-  <si>
-    <t>14.0+-5.6</t>
-  </si>
-  <si>
-    <t>1.3+-1.4</t>
-  </si>
-  <si>
-    <t>16.6+-6.0</t>
-  </si>
-  <si>
-    <t>3.8+-2.4</t>
-  </si>
-  <si>
-    <t>7.9+-4.0</t>
-  </si>
-  <si>
-    <t>0.4+-0.7</t>
-  </si>
-  <si>
-    <t>4.9+-2.7</t>
-  </si>
-  <si>
-    <t>0.3+-0.5</t>
-  </si>
-  <si>
-    <t>1.7+-1.4</t>
-  </si>
-  <si>
-    <t>1.3+-1.2</t>
-  </si>
-  <si>
-    <t>0.2+-0.5</t>
-  </si>
-  <si>
-    <t>0.1+-0.4</t>
-  </si>
-  <si>
-    <t>1.2+-1.4</t>
-  </si>
-  <si>
-    <t>0.9+-1.0</t>
-  </si>
-  <si>
-    <t>3.4+-4.4</t>
-  </si>
-  <si>
-    <t>0.6+-1.0</t>
-  </si>
-  <si>
-    <t>0.1+-0.3</t>
-  </si>
-  <si>
-    <t>0.2+-0.6</t>
-  </si>
-  <si>
-    <t>0.6+-1.1</t>
-  </si>
-  <si>
-    <t>0.0+-0.1</t>
+    <t>0.2+-0.4</t>
+  </si>
+  <si>
+    <t>0.6+-1.2</t>
   </si>
   <si>
     <t>0.0+-0.0</t>
@@ -975,10 +987,10 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>-2.85</v>
+        <v>-2.89</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="G2">
         <v>45.62</v>
@@ -1001,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>-7.67</v>
+        <v>-7.44</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1027,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>-3.35</v>
+        <v>-3.43</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1053,10 +1065,10 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>-0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="F5">
-        <v>0.536</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G5">
         <v>90.81</v>
@@ -1079,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>-17.14</v>
+        <v>-17.02</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1105,7 +1117,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>-3.92</v>
+        <v>-3.74</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1131,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F8">
-        <v>0.406</v>
+        <v>0.389</v>
       </c>
       <c r="G8">
         <v>5.9</v>
@@ -1157,10 +1169,10 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="F9">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G9">
         <v>23.47</v>
@@ -1183,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>4.82</v>
+        <v>5.04</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1235,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>8.039999999999999</v>
+        <v>7.87</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1261,10 +1273,10 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>5.19</v>
+        <v>5.5</v>
       </c>
       <c r="F13">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G13">
         <v>1.51</v>
@@ -1287,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>-5.01</v>
+        <v>-4.98</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1313,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>-7.01</v>
+        <v>-6.68</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1365,7 +1377,7 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>-3.86</v>
+        <v>-3.79</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1391,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>-3.17</v>
+        <v>-3.14</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1417,7 +1429,7 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>-6.46</v>
+        <v>-6.8</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1443,7 +1455,7 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>-3.51</v>
+        <v>-3.85</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1469,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>8.33</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1498,7 +1510,7 @@
         <v>-0.75</v>
       </c>
       <c r="F22">
-        <v>0.782</v>
+        <v>0.7879999999999999</v>
       </c>
       <c r="G22">
         <v>0.96</v>
@@ -1521,10 +1533,10 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="F23">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>7.42</v>
@@ -1547,10 +1559,10 @@
         <v>29</v>
       </c>
       <c r="E24">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F24">
-        <v>0.197</v>
+        <v>0.202</v>
       </c>
       <c r="G24">
         <v>0.84</v>
@@ -1576,7 +1588,7 @@
         <v>-1.35</v>
       </c>
       <c r="F25">
-        <v>0.907</v>
+        <v>0.922</v>
       </c>
       <c r="G25">
         <v>6.74</v>
@@ -1599,10 +1611,10 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>-1.62</v>
+        <v>-1.64</v>
       </c>
       <c r="F26">
-        <v>0.9590000000000001</v>
+        <v>0.9440000000000001</v>
       </c>
       <c r="G26">
         <v>107.75</v>
@@ -1625,10 +1637,10 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="F27">
-        <v>0.081</v>
+        <v>0.095</v>
       </c>
       <c r="G27">
         <v>10.85</v>
@@ -1651,7 +1663,7 @@
         <v>33</v>
       </c>
       <c r="E28">
-        <v>-5.39</v>
+        <v>-5.45</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1677,7 +1689,7 @@
         <v>34</v>
       </c>
       <c r="E29">
-        <v>-4.25</v>
+        <v>-4.27</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1703,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="E30">
-        <v>-7.96</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1729,7 +1741,7 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>-4.18</v>
+        <v>-4.45</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1755,10 +1767,10 @@
         <v>37</v>
       </c>
       <c r="E32">
-        <v>-1.13</v>
+        <v>-1.1</v>
       </c>
       <c r="F32">
-        <v>0.877</v>
+        <v>0.858</v>
       </c>
       <c r="G32">
         <v>26.28</v>
@@ -1781,10 +1793,10 @@
         <v>38</v>
       </c>
       <c r="E33">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="F33">
-        <v>0.373</v>
+        <v>0.3720000000000001</v>
       </c>
       <c r="G33">
         <v>3.53</v>
@@ -1807,7 +1819,7 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>-3.59</v>
+        <v>-3.46</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1833,10 +1845,10 @@
         <v>40</v>
       </c>
       <c r="E35">
-        <v>-1.59</v>
+        <v>-1.54</v>
       </c>
       <c r="F35">
-        <v>0.968</v>
+        <v>0.955</v>
       </c>
       <c r="G35">
         <v>0.26</v>
@@ -1859,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="E36">
-        <v>-2.58</v>
+        <v>-2.72</v>
       </c>
       <c r="F36">
         <v>0.9990000000000001</v>
@@ -1885,7 +1897,7 @@
         <v>42</v>
       </c>
       <c r="E37">
-        <v>-8.59</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1911,7 +1923,7 @@
         <v>43</v>
       </c>
       <c r="E38">
-        <v>-2.44</v>
+        <v>-2.3</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1937,7 +1949,7 @@
         <v>44</v>
       </c>
       <c r="E39">
-        <v>-5.94</v>
+        <v>-5.98</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1963,10 +1975,10 @@
         <v>45</v>
       </c>
       <c r="E40">
-        <v>-2.6</v>
+        <v>-2.66</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="G40">
         <v>0.22</v>
@@ -1989,10 +2001,10 @@
         <v>46</v>
       </c>
       <c r="E41">
-        <v>-0.84</v>
+        <v>-0.85</v>
       </c>
       <c r="F41">
-        <v>0.8070000000000001</v>
+        <v>0.8079999999999999</v>
       </c>
       <c r="G41">
         <v>6.65</v>
@@ -2015,10 +2027,10 @@
         <v>47</v>
       </c>
       <c r="E42">
-        <v>-1.66</v>
+        <v>-1.68</v>
       </c>
       <c r="F42">
-        <v>0.9620000000000001</v>
+        <v>0.961</v>
       </c>
       <c r="G42">
         <v>0.79</v>
@@ -2041,10 +2053,10 @@
         <v>48</v>
       </c>
       <c r="E43">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="F43">
-        <v>0.285</v>
+        <v>0.268</v>
       </c>
       <c r="G43">
         <v>4.9</v>
@@ -2070,7 +2082,7 @@
         <v>-1.62</v>
       </c>
       <c r="F44">
-        <v>0.9790000000000001</v>
+        <v>0.971</v>
       </c>
       <c r="G44">
         <v>0.19</v>
@@ -2093,10 +2105,10 @@
         <v>50</v>
       </c>
       <c r="E45">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="F45">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="G45">
         <v>2.9</v>
@@ -2119,10 +2131,10 @@
         <v>51</v>
       </c>
       <c r="E46">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="F46">
-        <v>0.015</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G46">
         <v>0.53</v>
@@ -2145,7 +2157,7 @@
         <v>52</v>
       </c>
       <c r="E47">
-        <v>7.28</v>
+        <v>7.35</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2171,10 +2183,10 @@
         <v>53</v>
       </c>
       <c r="E48">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.134</v>
+        <v>0.166</v>
       </c>
       <c r="G48">
         <v>0.7</v>
@@ -2197,10 +2209,10 @@
         <v>54</v>
       </c>
       <c r="E49">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="F49">
-        <v>0.374</v>
+        <v>0.359</v>
       </c>
       <c r="G49">
         <v>0.12</v>
@@ -2223,10 +2235,10 @@
         <v>55</v>
       </c>
       <c r="E50">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
       <c r="F50">
-        <v>0.009000000000000001</v>
+        <v>0.011</v>
       </c>
       <c r="G50">
         <v>8.109999999999999</v>
@@ -2249,7 +2261,7 @@
         <v>56</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>9.33</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2275,10 +2287,10 @@
         <v>57</v>
       </c>
       <c r="E52">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="F52">
-        <v>0.426</v>
+        <v>0.385</v>
       </c>
       <c r="G52">
         <v>1.51</v>
@@ -2301,7 +2313,7 @@
         <v>58</v>
       </c>
       <c r="E53">
-        <v>6.28</v>
+        <v>6.02</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2327,7 +2339,7 @@
         <v>59</v>
       </c>
       <c r="E54">
-        <v>9.24</v>
+        <v>9.74</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2353,10 +2365,10 @@
         <v>60</v>
       </c>
       <c r="E55">
-        <v>-0.86</v>
+        <v>-0.88</v>
       </c>
       <c r="F55">
-        <v>0.8440000000000001</v>
+        <v>0.846</v>
       </c>
       <c r="G55">
         <v>0.17</v>
@@ -2379,10 +2391,10 @@
         <v>61</v>
       </c>
       <c r="E56">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="F56">
-        <v>0.027</v>
+        <v>0.018</v>
       </c>
       <c r="G56">
         <v>0.22</v>
@@ -2405,7 +2417,7 @@
         <v>62</v>
       </c>
       <c r="E57">
-        <v>-2.37</v>
+        <v>-2.48</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2431,10 +2443,10 @@
         <v>63</v>
       </c>
       <c r="E58">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="F58">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="G58">
         <v>0.41</v>
@@ -2457,10 +2469,10 @@
         <v>64</v>
       </c>
       <c r="E59">
-        <v>2.94</v>
+        <v>3.19</v>
       </c>
       <c r="F59">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="G59">
         <v>0.12</v>
@@ -2483,7 +2495,7 @@
         <v>65</v>
       </c>
       <c r="E60">
-        <v>-7.46</v>
+        <v>-7.61</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2509,10 +2521,10 @@
         <v>66</v>
       </c>
       <c r="E61">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="F61">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G61">
         <v>48.57</v>
@@ -2535,10 +2547,10 @@
         <v>67</v>
       </c>
       <c r="E62">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="F62">
-        <v>0.09699999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G62">
         <v>4.32</v>
@@ -2561,10 +2573,10 @@
         <v>68</v>
       </c>
       <c r="E63">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="F63">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>4.61</v>
@@ -2587,10 +2599,10 @@
         <v>69</v>
       </c>
       <c r="E64">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="F64">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="G64">
         <v>4.39</v>
@@ -2613,10 +2625,10 @@
         <v>70</v>
       </c>
       <c r="E65">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="F65">
-        <v>0.009000000000000001</v>
+        <v>0.006</v>
       </c>
       <c r="G65">
         <v>1.39</v>
@@ -2639,7 +2651,7 @@
         <v>71</v>
       </c>
       <c r="E66">
-        <v>7.72</v>
+        <v>7.52</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2665,7 +2677,7 @@
         <v>72</v>
       </c>
       <c r="E67">
-        <v>12.5</v>
+        <v>12.31</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2691,7 +2703,7 @@
         <v>73</v>
       </c>
       <c r="E68">
-        <v>8.289999999999999</v>
+        <v>8.93</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2717,10 +2729,10 @@
         <v>74</v>
       </c>
       <c r="E69">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="F69">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="G69">
         <v>1.92</v>
@@ -2743,10 +2755,10 @@
         <v>75</v>
       </c>
       <c r="E70">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="F70">
-        <v>0.307</v>
+        <v>0.295</v>
       </c>
       <c r="G70">
         <v>0.1</v>
@@ -2766,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71">
-        <v>-1.35</v>
+        <v>-1.28</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2792,13 +2804,13 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="F72">
-        <v>0.055</v>
+        <v>0.067</v>
       </c>
       <c r="G72">
         <v>0.26</v>
@@ -2818,10 +2830,10 @@
         <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E73">
-        <v>13.7</v>
+        <v>14.22</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2844,10 +2856,10 @@
         <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74">
-        <v>13.26</v>
+        <v>13.75</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2870,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2896,10 +2908,10 @@
         <v>510</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76">
-        <v>-8.06</v>
+        <v>-7.7</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2922,10 +2934,10 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E77">
-        <v>-4.69</v>
+        <v>-4.55</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2948,13 +2960,13 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E78">
-        <v>-1.76</v>
+        <v>-1.74</v>
       </c>
       <c r="F78">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="G78">
         <v>0.02</v>
@@ -2974,13 +2986,13 @@
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E79">
-        <v>-2.55</v>
+        <v>-2.44</v>
       </c>
       <c r="F79">
-        <v>0.9990000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="G79">
         <v>1.49</v>
@@ -3000,10 +3012,10 @@
         <v>555</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80">
-        <v>-4.24</v>
+        <v>-4.14</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3026,10 +3038,10 @@
         <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E81">
-        <v>-1.43</v>
+        <v>-1.4</v>
       </c>
       <c r="F81">
         <v>0.9370000000000001</v>
@@ -3052,13 +3064,13 @@
         <v>547</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E82">
-        <v>-1.72</v>
+        <v>-1.64</v>
       </c>
       <c r="F82">
-        <v>0.965</v>
+        <v>0.956</v>
       </c>
       <c r="G82">
         <v>13.13</v>
@@ -3078,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E83">
-        <v>-3.03</v>
+        <v>-2.87</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3104,10 +3116,10 @@
         <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E84">
-        <v>-4.87</v>
+        <v>-4.65</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3130,13 +3142,13 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E85">
-        <v>-2.44</v>
+        <v>-2.5</v>
       </c>
       <c r="F85">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0.07000000000000001</v>
@@ -3156,13 +3168,13 @@
         <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86">
-        <v>-2.68</v>
+        <v>-2.91</v>
       </c>
       <c r="F86">
-        <v>0.998</v>
+        <v>0.9990000000000001</v>
       </c>
       <c r="G86">
         <v>2.11</v>
@@ -3182,13 +3194,13 @@
         <v>898</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87">
-        <v>2.9</v>
+        <v>3.02</v>
       </c>
       <c r="F87">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>21.55</v>
@@ -3208,13 +3220,13 @@
         <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88">
-        <v>-1.07</v>
+        <v>-1.1</v>
       </c>
       <c r="F88">
-        <v>0.8590000000000001</v>
+        <v>0.884</v>
       </c>
       <c r="G88">
         <v>1.32</v>
@@ -3234,13 +3246,13 @@
         <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E89">
-        <v>-0.98</v>
+        <v>-0.87</v>
       </c>
       <c r="F89">
-        <v>0.8420000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="G89">
         <v>5.16</v>
@@ -3260,13 +3272,13 @@
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E90">
-        <v>-1.45</v>
+        <v>-1.54</v>
       </c>
       <c r="F90">
-        <v>0.9520000000000001</v>
+        <v>0.9640000000000001</v>
       </c>
       <c r="G90">
         <v>0.31</v>
@@ -3286,13 +3298,13 @@
         <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E91">
-        <v>-2.02</v>
+        <v>-1.95</v>
       </c>
       <c r="F91">
-        <v>0.983</v>
+        <v>0.981</v>
       </c>
       <c r="G91">
         <v>1.34</v>
@@ -3312,13 +3324,13 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92">
-        <v>-1.81</v>
+        <v>-1.83</v>
       </c>
       <c r="F92">
-        <v>0.973</v>
+        <v>0.988</v>
       </c>
       <c r="G92">
         <v>0.07000000000000001</v>
@@ -3338,13 +3350,13 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E93">
-        <v>-0.54</v>
+        <v>-0.47</v>
       </c>
       <c r="F93">
-        <v>0.713</v>
+        <v>0.6859999999999999</v>
       </c>
       <c r="G93">
         <v>0.12</v>
@@ -3364,10 +3376,10 @@
         <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E94">
-        <v>-3.67</v>
+        <v>-3.72</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3390,13 +3402,13 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E95">
-        <v>-1.17</v>
+        <v>-1.15</v>
       </c>
       <c r="F95">
-        <v>0.9259999999999999</v>
+        <v>0.929</v>
       </c>
       <c r="G95">
         <v>0.07000000000000001</v>
@@ -3416,10 +3428,10 @@
         <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96">
-        <v>-2.92</v>
+        <v>-2.88</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3442,13 +3454,13 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E97">
-        <v>-0.66</v>
+        <v>-0.76</v>
       </c>
       <c r="F97">
-        <v>0.848</v>
+        <v>0.8740000000000001</v>
       </c>
       <c r="G97">
         <v>0.02</v>
@@ -3468,13 +3480,13 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E98">
-        <v>-1.62</v>
+        <v>-1.78</v>
       </c>
       <c r="F98">
-        <v>0.993</v>
+        <v>0.995</v>
       </c>
       <c r="G98">
         <v>0.07000000000000001</v>
@@ -3494,13 +3506,13 @@
         <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E99">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="F99">
-        <v>0.449</v>
+        <v>0.406</v>
       </c>
       <c r="G99">
         <v>2.78</v>
@@ -3520,13 +3532,13 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100">
-        <v>-1.18</v>
+        <v>-1.26</v>
       </c>
       <c r="F100">
-        <v>0.915</v>
+        <v>0.9179999999999999</v>
       </c>
       <c r="G100">
         <v>0.14</v>
@@ -3546,13 +3558,13 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E101">
-        <v>-1.16</v>
+        <v>-1.17</v>
       </c>
       <c r="F101">
-        <v>0.9179999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="G101">
         <v>0.29</v>
@@ -3572,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E102">
-        <v>-1.24</v>
+        <v>-1.28</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3598,10 +3610,10 @@
         <v>203</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E103">
-        <v>7.62</v>
+        <v>7.08</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3624,13 +3636,13 @@
         <v>81</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E104">
-        <v>-2.72</v>
+        <v>-2.82</v>
       </c>
       <c r="F104">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="G104">
         <v>1.94</v>
@@ -3650,13 +3662,13 @@
         <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E105">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F105">
-        <v>0.375</v>
+        <v>0.384</v>
       </c>
       <c r="G105">
         <v>0.6</v>
@@ -3676,10 +3688,10 @@
         <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E106">
-        <v>-2.39</v>
+        <v>-2.53</v>
       </c>
       <c r="F106">
         <v>0.9990000000000001</v>
@@ -3702,13 +3714,13 @@
         <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E107">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="F107">
-        <v>0.057</v>
+        <v>0.068</v>
       </c>
       <c r="G107">
         <v>1.46</v>
@@ -3728,13 +3740,13 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108">
-        <v>-2.44</v>
+        <v>-2.37</v>
       </c>
       <c r="F108">
-        <v>0.997</v>
+        <v>0.9990000000000001</v>
       </c>
       <c r="G108">
         <v>0.1</v>
@@ -3754,13 +3766,13 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E109">
-        <v>-2.79</v>
+        <v>-2.74</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.9990000000000001</v>
       </c>
       <c r="G109">
         <v>0.07000000000000001</v>
@@ -3780,13 +3792,13 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E110">
-        <v>-1.67</v>
+        <v>-1.69</v>
       </c>
       <c r="F110">
-        <v>0.9840000000000001</v>
+        <v>0.988</v>
       </c>
       <c r="G110">
         <v>0.05</v>
@@ -3806,13 +3818,13 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E111">
-        <v>-2.29</v>
+        <v>-2.37</v>
       </c>
       <c r="F111">
-        <v>0.9990000000000001</v>
+        <v>0.998</v>
       </c>
       <c r="G111">
         <v>0.12</v>
@@ -3832,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E112">
-        <v>-2.06</v>
+        <v>-1.95</v>
       </c>
       <c r="F112">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
       <c r="G112">
         <v>0.07000000000000001</v>
@@ -3858,10 +3870,10 @@
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E113">
-        <v>-4.13</v>
+        <v>-4.12</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3884,13 +3896,13 @@
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E114">
-        <v>-2.41</v>
+        <v>-2.5</v>
       </c>
       <c r="F114">
-        <v>0.998</v>
+        <v>0.9990000000000001</v>
       </c>
       <c r="G114">
         <v>0.07000000000000001</v>
@@ -3910,13 +3922,13 @@
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E115">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F115">
-        <v>0.218</v>
+        <v>0.232</v>
       </c>
       <c r="G115">
         <v>0.1</v>
@@ -3936,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E116">
-        <v>-1.77</v>
+        <v>-1.68</v>
       </c>
       <c r="F116">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G116">
         <v>0.02</v>
@@ -3962,13 +3974,13 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E117">
-        <v>-0.83</v>
+        <v>-0.87</v>
       </c>
       <c r="F117">
-        <v>0.8809999999999999</v>
+        <v>0.8759999999999999</v>
       </c>
       <c r="G117">
         <v>0.02</v>
@@ -3988,10 +4000,10 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E118">
-        <v>-2.72</v>
+        <v>-2.63</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4014,13 +4026,13 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E119">
-        <v>-1.08</v>
+        <v>-1.18</v>
       </c>
       <c r="F119">
-        <v>0.9109999999999999</v>
+        <v>0.912</v>
       </c>
       <c r="G119">
         <v>0.1</v>
@@ -4040,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E120">
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -4066,13 +4078,13 @@
         <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E121">
-        <v>-0.55</v>
+        <v>-0.53</v>
       </c>
       <c r="F121">
-        <v>0.7020000000000001</v>
+        <v>0.706</v>
       </c>
       <c r="G121">
         <v>1.51</v>
@@ -4092,13 +4104,13 @@
         <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E122">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="F122">
-        <v>0.101</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G122">
         <v>0.67</v>
@@ -4118,13 +4130,13 @@
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E123">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="F123">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="G123">
         <v>0.58</v>
@@ -4144,13 +4156,13 @@
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E124">
-        <v>-1.54</v>
+        <v>-1.57</v>
       </c>
       <c r="F124">
-        <v>0.963</v>
+        <v>0.968</v>
       </c>
       <c r="G124">
         <v>0.1</v>
@@ -4170,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E125">
-        <v>-0.72</v>
+        <v>-0.7</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -4196,10 +4208,10 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126">
-        <v>-2.76</v>
+        <v>-2.56</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -4222,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E127">
-        <v>-1.68</v>
+        <v>-1.64</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -4248,13 +4260,13 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E128">
-        <v>-1.08</v>
+        <v>-1.1</v>
       </c>
       <c r="F128">
-        <v>0.88</v>
+        <v>0.882</v>
       </c>
       <c r="G128">
         <v>0.31</v>
@@ -4274,10 +4286,10 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129">
-        <v>-3.02</v>
+        <v>-2.98</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -4300,13 +4312,13 @@
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E130">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="F130">
-        <v>0.467</v>
+        <v>0.489</v>
       </c>
       <c r="G130">
         <v>0.07000000000000001</v>
@@ -4326,13 +4338,13 @@
         <v>66</v>
       </c>
       <c r="D131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E131">
-        <v>3.01</v>
+        <v>2.86</v>
       </c>
       <c r="F131">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G131">
         <v>1.58</v>
@@ -4352,13 +4364,13 @@
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E132">
-        <v>-1.55</v>
+        <v>-1.61</v>
       </c>
       <c r="F132">
-        <v>0.966</v>
+        <v>0.97</v>
       </c>
       <c r="G132">
         <v>0.17</v>
@@ -4378,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E133">
-        <v>-1.1</v>
+        <v>-1.14</v>
       </c>
       <c r="F133">
-        <v>0.9409999999999999</v>
+        <v>0.951</v>
       </c>
       <c r="G133">
         <v>0.02</v>
@@ -4404,10 +4416,10 @@
         <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E134">
-        <v>6.29</v>
+        <v>6.19</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -4430,10 +4442,10 @@
         <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E135">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4456,13 +4468,13 @@
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E136">
-        <v>-0.27</v>
+        <v>-0.35</v>
       </c>
       <c r="F136">
-        <v>0.6409999999999999</v>
+        <v>0.669</v>
       </c>
       <c r="G136">
         <v>0.12</v>
@@ -4482,13 +4494,13 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E137">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="F137">
-        <v>0.644</v>
+        <v>0.647</v>
       </c>
       <c r="G137">
         <v>0.02</v>
@@ -4508,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E138">
-        <v>-1.38</v>
+        <v>-1.35</v>
       </c>
       <c r="F138">
-        <v>0.9740000000000001</v>
+        <v>0.978</v>
       </c>
       <c r="G138">
         <v>0.02</v>
@@ -4534,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E139">
-        <v>-1.16</v>
+        <v>-1.19</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -4560,13 +4572,13 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E140">
-        <v>-1.44</v>
+        <v>-1.43</v>
       </c>
       <c r="F140">
-        <v>0.956</v>
+        <v>0.9590000000000001</v>
       </c>
       <c r="G140">
         <v>0.12</v>
@@ -4586,13 +4598,13 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E141">
-        <v>-0.75</v>
+        <v>-0.78</v>
       </c>
       <c r="F141">
-        <v>0.863</v>
+        <v>0.866</v>
       </c>
       <c r="G141">
         <v>0.02</v>
@@ -4612,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E142">
-        <v>-2.23</v>
+        <v>-2.18</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -4638,13 +4650,13 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E143">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F143">
-        <v>0.275</v>
+        <v>0.285</v>
       </c>
       <c r="G143">
         <v>0.05</v>
@@ -4667,10 +4679,10 @@
         <v>148</v>
       </c>
       <c r="E144">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="F144">
-        <v>0.161</v>
+        <v>0.139</v>
       </c>
       <c r="G144">
         <v>0.19</v>
@@ -4693,10 +4705,10 @@
         <v>149</v>
       </c>
       <c r="E145">
-        <v>-1.8</v>
+        <v>-1.83</v>
       </c>
       <c r="F145">
-        <v>0.991</v>
+        <v>0.987</v>
       </c>
       <c r="G145">
         <v>0.07000000000000001</v>
@@ -4719,10 +4731,10 @@
         <v>150</v>
       </c>
       <c r="E146">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="F146">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="G146">
         <v>0.02</v>
@@ -4745,10 +4757,10 @@
         <v>151</v>
       </c>
       <c r="E147">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="F147">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G147">
         <v>0.65</v>
@@ -4771,10 +4783,10 @@
         <v>152</v>
       </c>
       <c r="E148">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="F148">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="G148">
         <v>0.1</v>
@@ -4797,10 +4809,10 @@
         <v>153</v>
       </c>
       <c r="E149">
-        <v>-0.49</v>
+        <v>-0.47</v>
       </c>
       <c r="F149">
-        <v>0.757</v>
+        <v>0.732</v>
       </c>
       <c r="G149">
         <v>0.07000000000000001</v>
@@ -4823,7 +4835,7 @@
         <v>154</v>
       </c>
       <c r="E150">
-        <v>-0.54</v>
+        <v>-0.58</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -4849,10 +4861,10 @@
         <v>155</v>
       </c>
       <c r="E151">
-        <v>-0.74</v>
+        <v>-0.7</v>
       </c>
       <c r="F151">
-        <v>0.855</v>
+        <v>0.8390000000000001</v>
       </c>
       <c r="G151">
         <v>0.02</v>
@@ -4875,10 +4887,10 @@
         <v>156</v>
       </c>
       <c r="E152">
-        <v>-1.01</v>
+        <v>-1.11</v>
       </c>
       <c r="F152">
-        <v>0.8590000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G152">
         <v>0.77</v>
@@ -4901,10 +4913,10 @@
         <v>157</v>
       </c>
       <c r="E153">
-        <v>-1.08</v>
+        <v>-1.18</v>
       </c>
       <c r="F153">
-        <v>0.9390000000000001</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="G153">
         <v>0.05</v>
@@ -4927,7 +4939,7 @@
         <v>158</v>
       </c>
       <c r="E154">
-        <v>-1.75</v>
+        <v>-1.74</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4953,7 +4965,7 @@
         <v>159</v>
       </c>
       <c r="E155">
-        <v>-1.04</v>
+        <v>-1.09</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4979,10 +4991,10 @@
         <v>160</v>
       </c>
       <c r="E156">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="F156">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="G156">
         <v>0.55</v>
@@ -5005,10 +5017,10 @@
         <v>161</v>
       </c>
       <c r="E157">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="F157">
-        <v>0.181</v>
+        <v>0.167</v>
       </c>
       <c r="G157">
         <v>0.07000000000000001</v>
@@ -5031,7 +5043,7 @@
         <v>162</v>
       </c>
       <c r="E158">
-        <v>-1.08</v>
+        <v>-1.19</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -5057,7 +5069,7 @@
         <v>163</v>
       </c>
       <c r="E159">
-        <v>8.18</v>
+        <v>8.56</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -5083,7 +5095,7 @@
         <v>164</v>
       </c>
       <c r="E160">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -5106,13 +5118,13 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E161">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="F161">
-        <v>0.098</v>
+        <v>0.091</v>
       </c>
       <c r="G161">
         <v>0.07000000000000001</v>
@@ -5132,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E162">
-        <v>-0.76</v>
+        <v>-0.77</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -5158,13 +5170,13 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="E163">
         <v>-0.67</v>
       </c>
       <c r="F163">
-        <v>0.841</v>
+        <v>0.847</v>
       </c>
       <c r="G163">
         <v>0.02</v>
@@ -5184,13 +5196,13 @@
         <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E164">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="F164">
-        <v>0.079</v>
+        <v>0.063</v>
       </c>
       <c r="G164">
         <v>0.55</v>
@@ -5210,13 +5222,13 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E165">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="F165">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="G165">
         <v>0.07000000000000001</v>
@@ -5236,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E166">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="F166">
-        <v>0.6629999999999999</v>
+        <v>0.6990000000000001</v>
       </c>
       <c r="G166">
         <v>0.02</v>
@@ -5262,10 +5274,10 @@
         <v>91</v>
       </c>
       <c r="D167" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E167">
-        <v>12.47</v>
+        <v>11.92</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -5288,13 +5300,13 @@
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F168">
-        <v>0.222</v>
+        <v>0.235</v>
       </c>
       <c r="G168">
         <v>0.14</v>
@@ -5314,10 +5326,10 @@
         <v>49</v>
       </c>
       <c r="D169" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E169">
-        <v>10.35</v>
+        <v>10.53</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -5340,13 +5352,13 @@
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E170">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="F170">
-        <v>0.169</v>
+        <v>0.163</v>
       </c>
       <c r="G170">
         <v>0.05</v>
@@ -5366,10 +5378,10 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E171">
-        <v>-0.5600000000000001</v>
+        <v>-0.57</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -5392,13 +5404,13 @@
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E172">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F172">
-        <v>0.523</v>
+        <v>0.496</v>
       </c>
       <c r="G172">
         <v>0.12</v>
@@ -5418,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E173">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F173">
-        <v>0.539</v>
+        <v>0.536</v>
       </c>
       <c r="G173">
         <v>0.02</v>
@@ -5444,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E174">
         <v>-0.5</v>
@@ -5470,13 +5482,13 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E175">
-        <v>-0.53</v>
+        <v>-0.48</v>
       </c>
       <c r="F175">
-        <v>0.805</v>
+        <v>0.773</v>
       </c>
       <c r="G175">
         <v>0.02</v>
@@ -5496,13 +5508,13 @@
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E176">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F176">
-        <v>0.36</v>
+        <v>0.319</v>
       </c>
       <c r="G176">
         <v>0.05</v>
@@ -5522,13 +5534,13 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E177">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="F177">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="G177">
         <v>0.05</v>
@@ -5548,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E178">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -5574,13 +5586,13 @@
         <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E179">
-        <v>3.48</v>
+        <v>3.81</v>
       </c>
       <c r="F179">
-        <v>0.015</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G179">
         <v>0.14</v>
@@ -5600,13 +5612,13 @@
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E180">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="F180">
-        <v>0.223</v>
+        <v>0.228</v>
       </c>
       <c r="G180">
         <v>0.05</v>
@@ -5626,13 +5638,13 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="E181">
-        <v>8.67</v>
+        <v>7.37</v>
       </c>
       <c r="F181">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G181">
         <v>0.05</v>
@@ -5652,13 +5664,13 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E182">
-        <v>4.44</v>
+        <v>4.66</v>
       </c>
       <c r="F182">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G182">
         <v>0.55</v>
@@ -5678,13 +5690,13 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E183">
-        <v>-0.21</v>
+        <v>-0.27</v>
       </c>
       <c r="F183">
-        <v>0.68</v>
+        <v>0.703</v>
       </c>
       <c r="G183">
         <v>0.02</v>
@@ -5704,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="D184" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E184">
-        <v>-1.11</v>
+        <v>-1.13</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -5730,13 +5742,13 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E185">
-        <v>4.53</v>
+        <v>4.97</v>
       </c>
       <c r="F185">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G185">
         <v>0.12</v>
@@ -5756,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E186">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -5782,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E187">
-        <v>-0.5600000000000001</v>
+        <v>-0.51</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -5808,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="E188">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -5837,10 +5849,10 @@
         <v>154</v>
       </c>
       <c r="E189">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F189">
-        <v>0.115</v>
+        <v>0.106</v>
       </c>
       <c r="G189">
         <v>0.05</v>
@@ -5860,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="E190">
         <v>-0.18</v>
@@ -5886,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E191">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -5912,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E192">
-        <v>-0.39</v>
+        <v>-0.42</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5938,10 +5950,10 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E193">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="F193">
         <v>0.178</v>
@@ -5964,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E194">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F194">
         <v>0.551</v>
@@ -5990,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="D195" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E195">
-        <v>-0.28</v>
+        <v>-0.31</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -6016,10 +6028,10 @@
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E196">
-        <v>9.949999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -6042,13 +6054,13 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E197">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="F197">
-        <v>0.142</v>
+        <v>0.123</v>
       </c>
       <c r="G197">
         <v>0.02</v>
@@ -6068,10 +6080,10 @@
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E198">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -6094,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E199">
-        <v>7.18</v>
+        <v>6.66</v>
       </c>
       <c r="F199">
         <v>0.019</v>
@@ -6120,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="D200" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E200">
         <v>888888</v>
